--- a/graph/data.xlsx
+++ b/graph/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SerKin0\Documents\LaTeX\Лабораторная работа 7-Дифференцирование и интегрирование сигналов\IBTC-physics-2k3s-latex-dif_int_signal\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4685D78-117E-425F-88DD-614F39D2F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF6BFDF-4287-4431-A420-304A80F95ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D6032605-9453-43CD-A1C2-05777A1FEC7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D6032605-9453-43CD-A1C2-05777A1FEC7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>$\nu,~\text{Гц}$</t>
   </si>
@@ -56,15 +57,16 @@
     <t>$\sin \approx \frac{2U_y}{2A_y}$</t>
   </si>
   <si>
-    <t>$K = \frac{2A_x}{2A_y}$</t>
+    <t>$K = \frac{2A_y}{2A_x}$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -103,7 +105,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A798A8-2D4E-4C15-BF35-B69C07628AE3}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,8 +497,8 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <f>B2/C2</f>
-        <v>156.99999999999997</v>
+        <f>C2/B2</f>
+        <v>6.369426751592357E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -514,8 +519,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F27" si="1">B3/C3</f>
-        <v>33.793103448275865</v>
+        <f t="shared" ref="F3:F27" si="1">C3/B3</f>
+        <v>2.9591836734693875E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,7 +542,7 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>23.666666666666668</v>
+        <v>4.2253521126760563E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,7 +564,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>20.588235294117645</v>
+        <v>4.8571428571428578E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,7 +586,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>18.032786885245901</v>
+        <v>5.5454545454545451E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -603,7 +608,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>17.049180327868854</v>
+        <v>5.8653846153846154E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -625,7 +630,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,7 +652,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>8.7096774193548399</v>
+        <v>0.1148148148148148</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,7 +674,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>6.721311475409836</v>
+        <v>0.14878048780487807</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,7 +696,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>5.7894736842105265</v>
+        <v>0.1727272727272727</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,7 +718,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>4.9668874172185431</v>
+        <v>0.20133333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,7 +740,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>4.320652173913043</v>
+        <v>0.23144654088050315</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,7 +762,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>3.5333333333333332</v>
+        <v>0.28301886792452829</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,7 +784,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,7 +806,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>2.6065573770491803</v>
+        <v>0.38364779874213834</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,7 +828,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>2.3088235294117645</v>
+        <v>0.43312101910828027</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,7 +850,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>2.1506849315068495</v>
+        <v>0.46496815286624205</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,7 +872,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>2.0389610389610389</v>
+        <v>0.49044585987261152</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -889,7 +894,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>1.8255813953488371</v>
+        <v>0.54777070063694266</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,7 +916,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>1.6633663366336635</v>
+        <v>0.60119047619047616</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,7 +938,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>1.5568181818181817</v>
+        <v>0.64233576642335777</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,7 +960,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>1.4814814814814814</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -977,7 +982,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>1.4090909090909092</v>
+        <v>0.70967741935483875</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -999,7 +1004,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>1.2601626016260161</v>
+        <v>0.79354838709677422</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,7 +1026,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="1"/>
-        <v>1.1603053435114503</v>
+        <v>0.86184210526315796</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1048,356 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="1"/>
-        <v>1.1278195488721805</v>
+        <v>0.88666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568336DF-5812-4379-A2A5-C6CA3ADF82FE}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2/C2</f>
+        <v>0.23728813559322032</v>
+      </c>
+      <c r="F2" s="2">
+        <f>C2/B2</f>
+        <v>0.59595959595959602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E15" si="0">D3/C3</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F15" si="1">C3/B3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73170731707317083</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41836734693877542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.88</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.84</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84883720930232553</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3510204081632653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.84</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90410958904109595</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29494949494949491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>120</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24554455445544554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>150</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19801980198019803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>200</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15049504950495049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>300</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10297029702970298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>400</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>7.6237623762376236E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>500</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96825396825396826</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2376237623762376E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9838709677419355</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0693069306930693E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5346534653465346E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0396039603960397E-2</v>
       </c>
     </row>
   </sheetData>
